--- a/temp.xlsx
+++ b/temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F12B4B-961E-404C-A878-D2D4EF45AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0598E-809F-48E3-B950-3E8E34E936B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="191">
   <si>
     <t>Номер реестра</t>
   </si>
@@ -589,9 +589,6 @@
   <si>
     <t>28991260</t>
   </si>
-  <si>
-    <t>132131</t>
-  </si>
 </sst>
 </file>
 
@@ -1131,7 +1128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1255,7 @@
         <v>45009</v>
       </c>
       <c r="J2" s="14">
-        <v>45008</v>
+        <v>47200</v>
       </c>
       <c r="K2" s="16">
         <v>24</v>
@@ -1349,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S3" s="16"/>
       <c r="X3" s="7">
@@ -1412,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S4" s="16"/>
       <c r="X4" s="7">
@@ -1472,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S5" s="16"/>
       <c r="X5" s="7">
@@ -1532,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S6" s="16"/>
       <c r="X6" s="7">
@@ -1592,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S7" s="16"/>
       <c r="X7" s="7">
@@ -1652,7 +1649,7 @@
         <v>22</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S8" s="16"/>
       <c r="X8" s="7">
@@ -1712,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S9" s="16"/>
       <c r="X9" s="7">
@@ -1772,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S10" s="16"/>
       <c r="X10" s="7">
@@ -1832,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S11" s="16"/>
       <c r="X11" s="7">
@@ -1892,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S12" s="16"/>
       <c r="X12" s="7">
@@ -1952,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S13" s="16"/>
       <c r="X13" s="7">
@@ -2012,7 +2009,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S14" s="16"/>
       <c r="X14" s="7">
@@ -2072,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S15" s="16"/>
       <c r="X15" s="7">
@@ -2132,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S16" s="16"/>
       <c r="X16" s="7">
@@ -2192,7 +2189,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S17" s="16"/>
       <c r="X17" s="7">
@@ -2252,7 +2249,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S18" s="16"/>
       <c r="X18" s="7">
@@ -2312,7 +2309,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S19" s="16"/>
       <c r="X19" s="7">
@@ -2372,7 +2369,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S20" s="16"/>
       <c r="X20" s="7">
@@ -2432,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S21" s="16"/>
       <c r="X21" s="7">
@@ -2492,7 +2489,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S22" s="16"/>
       <c r="X22" s="7">
@@ -2552,7 +2549,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S23" s="16"/>
       <c r="X23" s="7">
@@ -2612,7 +2609,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S24" s="16"/>
       <c r="X24" s="7">
@@ -2672,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S25" s="16"/>
       <c r="X25" s="7">
@@ -2732,7 +2729,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S26" s="16"/>
       <c r="X26" s="7">
@@ -2792,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S27" s="16"/>
       <c r="X27" s="7">
@@ -2852,7 +2849,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S28" s="16"/>
       <c r="X28" s="7">
@@ -2912,7 +2909,7 @@
         <v>22</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S29" s="16"/>
       <c r="X29" s="7">
@@ -2972,7 +2969,7 @@
         <v>22</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S30" s="16"/>
       <c r="X30" s="7">
@@ -3032,7 +3029,7 @@
         <v>22</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="S31" s="16"/>
       <c r="X31" s="7">
